--- a/Defect Template.xlsx
+++ b/Defect Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FD597A-5EB5-4124-A501-FAE14D60EE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700A7F8E-BE25-442E-964A-DB0A9C371BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C71F29AF-8E52-4837-A5DA-9C0E61EFA655}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Defect ID #</t>
   </si>
@@ -75,6 +75,40 @@
   </si>
   <si>
     <t>Fixed Date</t>
+  </si>
+  <si>
+    <t>Defect_001</t>
+  </si>
+  <si>
+    <t>Last Name Field is not
+ refelecting in Booking confirmation Page</t>
+  </si>
+  <si>
+    <t>After entering Details in Book A Hotel Page 
+few details are missing in Booking Confirmation 
+Page</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1 : Launch App using URL https://adactinhotelapp.com/
+Step2 : Login using credentials  
+username : reyaz0617
+password:reyaz123
+</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In QA Env , build # 1344</t>
+  </si>
+  <si>
+    <t>Yaswant</t>
   </si>
 </sst>
 </file>
@@ -138,12 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D9586D-54DA-41FD-9073-3A9B5D525DF6}">
-  <dimension ref="B4:M4"/>
+  <dimension ref="B4:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -469,7 +509,7 @@
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -521,6 +561,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="2:13" ht="231" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
